--- a/academias/Electricidad - Estadisticos 20211.xlsx
+++ b/academias/Electricidad - Estadisticos 20211.xlsx
@@ -761,22 +761,25 @@
         <v>32</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>78.13</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>21.88</v>
+      </c>
+      <c r="I9">
+        <v>8.199999999999999</v>
       </c>
       <c r="J9">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -863,22 +866,25 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>57.58</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>42.42</v>
+      </c>
+      <c r="I12">
+        <v>7.4</v>
       </c>
       <c r="J12">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -959,22 +965,25 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>57.58</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>42.42</v>
+      </c>
+      <c r="I15">
+        <v>8.300000000000001</v>
       </c>
       <c r="J15">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -991,22 +1000,25 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>30.43</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>30.43</v>
       </c>
     </row>
   </sheetData>
@@ -1852,22 +1864,25 @@
         <v>32</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>78.13</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>21.88</v>
+      </c>
+      <c r="I9">
+        <v>8.199999999999999</v>
       </c>
       <c r="J9">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1954,22 +1969,25 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>57.58</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>42.42</v>
+      </c>
+      <c r="I12">
+        <v>7.4</v>
       </c>
       <c r="J12">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2050,22 +2068,25 @@
         <v>33</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F15">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>57.58</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>42.42</v>
+      </c>
+      <c r="I15">
+        <v>8.300000000000001</v>
       </c>
       <c r="J15">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>42.42</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2082,22 +2103,25 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>30.43</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>30.43</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Electricidad - Estadisticos 20211.xlsx
+++ b/academias/Electricidad - Estadisticos 20211.xlsx
@@ -516,25 +516,25 @@
         <v>32</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>21.88</v>
       </c>
       <c r="I2">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -761,25 +761,25 @@
         <v>32</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>78.13</v>
+        <v>81.25</v>
       </c>
       <c r="H9">
-        <v>21.88</v>
+        <v>18.75</v>
       </c>
       <c r="I9">
         <v>8.199999999999999</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>21.88</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -898,25 +898,28 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>6.7</v>
       </c>
       <c r="J13">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -930,25 +933,28 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>6.7</v>
       </c>
       <c r="J14">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1436,13 +1442,13 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1451,7 +1457,7 @@
         <v>100</v>
       </c>
       <c r="J13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13">
         <v>100</v>
@@ -1468,13 +1474,13 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1483,7 +1489,7 @@
         <v>100</v>
       </c>
       <c r="J14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14">
         <v>100</v>
@@ -1619,25 +1625,25 @@
         <v>32</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>21.88</v>
       </c>
       <c r="I2">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>25</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1864,25 +1870,25 @@
         <v>32</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>78.13</v>
+        <v>81.25</v>
       </c>
       <c r="H9">
-        <v>21.88</v>
+        <v>18.75</v>
       </c>
       <c r="I9">
         <v>8.199999999999999</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9">
-        <v>21.88</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2001,25 +2007,28 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F13">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>6.7</v>
       </c>
       <c r="J13">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2033,25 +2042,28 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>6.7</v>
       </c>
       <c r="J14">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="15" spans="1:11">
